--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lama1-Rpsa.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lama1-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H2">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I2">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J2">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>75.4260964743617</v>
+        <v>112.708133</v>
       </c>
       <c r="N2">
-        <v>75.4260964743617</v>
+        <v>338.124399</v>
       </c>
       <c r="O2">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="P2">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="Q2">
-        <v>24.72471163935647</v>
+        <v>2.573502370166667</v>
       </c>
       <c r="R2">
-        <v>24.72471163935647</v>
+        <v>23.1615213315</v>
       </c>
       <c r="S2">
-        <v>0.1559777762194725</v>
+        <v>0.01161996870937657</v>
       </c>
       <c r="T2">
-        <v>0.1559777762194725</v>
+        <v>0.01161996870937657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H3">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I3">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J3">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>185.250577792928</v>
+        <v>189.57842</v>
       </c>
       <c r="N3">
-        <v>185.250577792928</v>
+        <v>568.7352599999999</v>
       </c>
       <c r="O3">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="P3">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="Q3">
-        <v>60.72523080272635</v>
+        <v>4.328707256666666</v>
       </c>
       <c r="R3">
-        <v>60.72523080272635</v>
+        <v>38.95836531</v>
       </c>
       <c r="S3">
-        <v>0.3830898656850826</v>
+        <v>0.01954513174637582</v>
       </c>
       <c r="T3">
-        <v>0.3830898656850826</v>
+        <v>0.01954513174637582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H4">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I4">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J4">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.36334882510791</v>
+        <v>110.6512236666667</v>
       </c>
       <c r="N4">
-        <v>93.36334882510791</v>
+        <v>331.953671</v>
       </c>
       <c r="O4">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="P4">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="Q4">
-        <v>30.6045518101297</v>
+        <v>2.526536273722222</v>
       </c>
       <c r="R4">
-        <v>30.6045518101297</v>
+        <v>22.7388264635</v>
       </c>
       <c r="S4">
-        <v>0.1930712075905088</v>
+        <v>0.01140790573348326</v>
       </c>
       <c r="T4">
-        <v>0.1930712075905088</v>
+        <v>0.01140790573348326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H5">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I5">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J5">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.9380275679281</v>
+        <v>118.3222806666667</v>
       </c>
       <c r="N5">
-        <v>82.9380275679281</v>
+        <v>354.966842</v>
       </c>
       <c r="O5">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053953</v>
       </c>
       <c r="P5">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053952</v>
       </c>
       <c r="Q5">
-        <v>27.18712635819688</v>
+        <v>2.701692075222222</v>
       </c>
       <c r="R5">
-        <v>27.18712635819688</v>
+        <v>24.315228677</v>
       </c>
       <c r="S5">
-        <v>0.1715121119713786</v>
+        <v>0.0121987753888953</v>
       </c>
       <c r="T5">
-        <v>0.1715121119713786</v>
+        <v>0.0121987753888953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0349507317719649</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H6">
-        <v>0.0349507317719649</v>
+        <v>1.018678</v>
       </c>
       <c r="I6">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751427</v>
       </c>
       <c r="J6">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751428</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.4260964743617</v>
+        <v>112.708133</v>
       </c>
       <c r="N6">
-        <v>75.4260964743617</v>
+        <v>338.124399</v>
       </c>
       <c r="O6">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="P6">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="Q6">
-        <v>2.636197266481763</v>
+        <v>38.27109850272467</v>
       </c>
       <c r="R6">
-        <v>2.636197266481763</v>
+        <v>344.439886524522</v>
       </c>
       <c r="S6">
-        <v>0.01663065653906975</v>
+        <v>0.1728030143785446</v>
       </c>
       <c r="T6">
-        <v>0.01663065653906975</v>
+        <v>0.1728030143785446</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0349507317719649</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H7">
-        <v>0.0349507317719649</v>
+        <v>1.018678</v>
       </c>
       <c r="I7">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751427</v>
       </c>
       <c r="J7">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751428</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>185.250577792928</v>
+        <v>189.57842</v>
       </c>
       <c r="N7">
-        <v>185.250577792928</v>
+        <v>568.7352599999999</v>
       </c>
       <c r="O7">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="P7">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="Q7">
-        <v>6.474643255042144</v>
+        <v>64.37312190958666</v>
       </c>
       <c r="R7">
-        <v>6.474643255042144</v>
+        <v>579.3580971862799</v>
       </c>
       <c r="S7">
-        <v>0.04084579312659543</v>
+        <v>0.2906597914910165</v>
       </c>
       <c r="T7">
-        <v>0.04084579312659543</v>
+        <v>0.2906597914910165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0349507317719649</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H8">
-        <v>0.0349507317719649</v>
+        <v>1.018678</v>
       </c>
       <c r="I8">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751427</v>
       </c>
       <c r="J8">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751428</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.36334882510791</v>
+        <v>110.6512236666667</v>
       </c>
       <c r="N8">
-        <v>93.36334882510791</v>
+        <v>331.953671</v>
       </c>
       <c r="O8">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="P8">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="Q8">
-        <v>3.263117362118741</v>
+        <v>37.57265574077089</v>
       </c>
       <c r="R8">
-        <v>3.263117362118741</v>
+        <v>338.153901666938</v>
       </c>
       <c r="S8">
-        <v>0.02058563097157641</v>
+        <v>0.1696493809747922</v>
       </c>
       <c r="T8">
-        <v>0.02058563097157641</v>
+        <v>0.1696493809747922</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3395593333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.018678</v>
+      </c>
+      <c r="I9">
+        <v>0.8145227578751427</v>
+      </c>
+      <c r="J9">
+        <v>0.8145227578751428</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>118.3222806666667</v>
+      </c>
+      <c r="N9">
+        <v>354.966842</v>
+      </c>
+      <c r="O9">
+        <v>0.2227200766053953</v>
+      </c>
+      <c r="P9">
+        <v>0.2227200766053952</v>
+      </c>
+      <c r="Q9">
+        <v>40.17743474165288</v>
+      </c>
+      <c r="R9">
+        <v>361.596912674876</v>
+      </c>
+      <c r="S9">
+        <v>0.1814105710307896</v>
+      </c>
+      <c r="T9">
+        <v>0.1814105710307896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.163466</v>
+      </c>
+      <c r="I10">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J10">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>112.708133</v>
+      </c>
+      <c r="N10">
+        <v>338.124399</v>
+      </c>
+      <c r="O10">
+        <v>0.2121524692929861</v>
+      </c>
+      <c r="P10">
+        <v>0.2121524692929861</v>
+      </c>
+      <c r="Q10">
+        <v>6.141315889659334</v>
+      </c>
+      <c r="R10">
+        <v>55.27184300693401</v>
+      </c>
+      <c r="S10">
+        <v>0.02772948620506496</v>
+      </c>
+      <c r="T10">
+        <v>0.02772948620506496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.0349507317719649</v>
-      </c>
-      <c r="H9">
-        <v>0.0349507317719649</v>
-      </c>
-      <c r="I9">
-        <v>0.09634903853355745</v>
-      </c>
-      <c r="J9">
-        <v>0.09634903853355745</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>82.9380275679281</v>
-      </c>
-      <c r="N9">
-        <v>82.9380275679281</v>
-      </c>
-      <c r="O9">
-        <v>0.1897990698676945</v>
-      </c>
-      <c r="P9">
-        <v>0.1897990698676945</v>
-      </c>
-      <c r="Q9">
-        <v>2.898744755222486</v>
-      </c>
-      <c r="R9">
-        <v>2.898744755222486</v>
-      </c>
-      <c r="S9">
-        <v>0.01828695789631586</v>
-      </c>
-      <c r="T9">
-        <v>0.01828695789631586</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.163466</v>
+      </c>
+      <c r="I11">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J11">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>189.57842</v>
+      </c>
+      <c r="N11">
+        <v>568.7352599999999</v>
+      </c>
+      <c r="O11">
+        <v>0.3568467408440064</v>
+      </c>
+      <c r="P11">
+        <v>0.3568467408440064</v>
+      </c>
+      <c r="Q11">
+        <v>10.32987533457333</v>
+      </c>
+      <c r="R11">
+        <v>92.96887801115999</v>
+      </c>
+      <c r="S11">
+        <v>0.04664181760661416</v>
+      </c>
+      <c r="T11">
+        <v>0.04664181760661416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.163466</v>
+      </c>
+      <c r="I12">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J12">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>110.6512236666667</v>
+      </c>
+      <c r="N12">
+        <v>331.953671</v>
+      </c>
+      <c r="O12">
+        <v>0.2082807132576123</v>
+      </c>
+      <c r="P12">
+        <v>0.2082807132576123</v>
+      </c>
+      <c r="Q12">
+        <v>6.029237642631777</v>
+      </c>
+      <c r="R12">
+        <v>54.263138783686</v>
+      </c>
+      <c r="S12">
+        <v>0.02722342654933686</v>
+      </c>
+      <c r="T12">
+        <v>0.02722342654933687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.163466</v>
+      </c>
+      <c r="I13">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J13">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>118.3222806666667</v>
+      </c>
+      <c r="N13">
+        <v>354.966842</v>
+      </c>
+      <c r="O13">
+        <v>0.2227200766053953</v>
+      </c>
+      <c r="P13">
+        <v>0.2227200766053952</v>
+      </c>
+      <c r="Q13">
+        <v>6.447223310485777</v>
+      </c>
+      <c r="R13">
+        <v>58.025009794372</v>
+      </c>
+      <c r="S13">
+        <v>0.02911073018571035</v>
+      </c>
+      <c r="T13">
+        <v>0.02911073018571036</v>
       </c>
     </row>
   </sheetData>
